--- a/biology/Botanique/Bocoa_viridiflora/Bocoa_viridiflora.xlsx
+++ b/biology/Botanique/Bocoa_viridiflora/Bocoa_viridiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bocoa viridiflora (ou Swartzia viridiflora) est une espèce d'arbre réparti entre le plateau des Guyanes et le Brésil. Il s'agit de la plus grande espèce du genre Bocoa, atteignant 30m de haut. Elle est considérée comme patrimoniale en Guyane française.
 </t>
